--- a/3.规划过程/淘其所好测试用例.xlsx
+++ b/3.规划过程/淘其所好测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11520" windowHeight="9155"/>
+    <workbookView windowWidth="19890" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="64">
   <si>
     <t>编号</t>
   </si>
@@ -221,6 +221,48 @@
   <si>
     <t>进入商品
 详情界面，上方是用户名和电话，下方式商品图片和名称以及价格，下面是所花金额，下方是备注：订单编号，下单时间和支付方式</t>
+  </si>
+  <si>
+    <t>测试我的
+金币未使用界面的UI显示</t>
+  </si>
+  <si>
+    <t>点击我的
+金币，点
+击未使用</t>
+  </si>
+  <si>
+    <t>界面显示
+未使用的
+金币券</t>
+  </si>
+  <si>
+    <t>测试我的
+金币未生效界面的UI显示</t>
+  </si>
+  <si>
+    <t>点击我的
+金币，点
+击未生效</t>
+  </si>
+  <si>
+    <t>界面显示
+未生效的
+金币券</t>
+  </si>
+  <si>
+    <t>测试我的
+金币已失效界面的UI显示</t>
+  </si>
+  <si>
+    <t>点击我的
+金币，点
+击已失效</t>
+  </si>
+  <si>
+    <t>界面显示
+已失效的
+金币券</t>
   </si>
 </sst>
 </file>
@@ -228,10 +270,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -249,8 +291,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,6 +316,37 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,6 +360,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -280,7 +400,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,92 +422,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -395,187 +437,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,6 +628,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -609,6 +666,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -639,21 +720,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -662,30 +728,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -697,7 +739,7 @@
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -706,7 +748,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -715,124 +757,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1194,13 +1236,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
@@ -1228,7 +1270,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="201.6" spans="1:7">
+    <row r="2" ht="189" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1248,7 +1290,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" ht="100.8" spans="1:7">
+    <row r="3" ht="94.5" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1268,7 +1310,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" ht="57.6" spans="1:7">
+    <row r="4" ht="54" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1288,7 +1330,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" ht="72" spans="1:7">
+    <row r="5" ht="67.5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1308,7 +1350,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" ht="158.4" spans="1:7">
+    <row r="6" ht="148.5" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1328,7 +1370,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" ht="100.8" spans="1:7">
+    <row r="7" ht="94.5" spans="1:7">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1341,54 +1383,54 @@
       <c r="D7" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" ht="115.2" spans="1:7">
+    <row r="8" ht="108" spans="1:7">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" ht="72" spans="1:7">
+    <row r="9" ht="67.5" spans="1:7">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" ht="115.2" spans="1:7">
+    <row r="10" ht="108" spans="1:7">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1401,111 +1443,171 @@
       <c r="D10" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="1" t="s">
         <v>36</v>
       </c>
       <c r="G10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" ht="86.4" spans="1:7">
+    <row r="11" ht="81" spans="1:7">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" ht="57.6" spans="1:7">
+    <row r="12" ht="54" spans="1:7">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" ht="57.6" spans="1:7">
+    <row r="13" ht="54" spans="1:7">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="14" ht="144" spans="1:7">
+    <row r="14" ht="135" spans="1:7">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D14" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="15" ht="230.4" spans="1:7">
+    <row r="15" ht="216" spans="1:7">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D15" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="1" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="16" ht="108" customHeight="1" spans="1:7">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" ht="75" customHeight="1" spans="1:7">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" ht="82" customHeight="1" spans="1:7">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1524,7 +1626,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1541,7 +1643,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/3.规划过程/淘其所好测试用例.xlsx
+++ b/3.规划过程/淘其所好测试用例.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\360MoveData\Users\Lenovo\Desktop\ProjectMangement\3.规划过程\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4B3824-F43D-456C-B94E-15DCB136CD44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="7530"/>
+    <workbookView xWindow="8940" yWindow="1380" windowWidth="15036" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="72">
   <si>
     <t>编号</t>
   </si>
@@ -263,19 +269,45 @@
     <t>界面显示
 已失效的
 金币券</t>
+  </si>
+  <si>
+    <t>我的成长值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试帮助界面的UI显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击帮助</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面显示有关成长值的用途及介绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试当前成长值界面的UI显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击我的成长值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面显示当前成长值及成长值明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,345 +316,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -630,251 +338,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -889,61 +355,17 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1230,21 +652,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1270,7 +697,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="189" spans="1:7">
+    <row r="2" spans="1:8" ht="201.6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1290,7 +717,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" ht="94.5" spans="1:7">
+    <row r="3" spans="1:8" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1310,7 +737,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" ht="54" spans="1:7">
+    <row r="4" spans="1:8" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1330,7 +757,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" ht="67.5" spans="1:7">
+    <row r="5" spans="1:8" ht="72" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1350,7 +777,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" ht="148.5" spans="1:7">
+    <row r="6" spans="1:8" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1370,7 +797,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" ht="94.5" spans="1:7">
+    <row r="7" spans="1:8" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1390,7 +817,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" ht="108" spans="1:7">
+    <row r="8" spans="1:8" ht="115.2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1410,7 +837,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" ht="67.5" spans="1:7">
+    <row r="9" spans="1:8" ht="72" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1430,7 +857,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" ht="108" spans="1:7">
+    <row r="10" spans="1:8" ht="115.2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1450,7 +877,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" ht="81" spans="1:7">
+    <row r="11" spans="1:8" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1470,7 +897,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" ht="54" spans="1:7">
+    <row r="12" spans="1:8" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1490,7 +917,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" ht="54" spans="1:7">
+    <row r="13" spans="1:8" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1510,7 +937,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" ht="135" spans="1:7">
+    <row r="14" spans="1:8" ht="144" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1530,7 +957,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" ht="216" spans="1:7">
+    <row r="15" spans="1:8" ht="230.4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1550,7 +977,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" ht="108" customHeight="1" spans="1:7">
+    <row r="16" spans="1:8" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1570,7 +997,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" ht="75" customHeight="1" spans="1:7">
+    <row r="17" spans="1:7" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1590,7 +1017,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" ht="82" customHeight="1" spans="1:7">
+    <row r="18" spans="1:7" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1610,43 +1037,77 @@
         <v>63</v>
       </c>
     </row>
+    <row r="19" spans="1:7" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>